--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\尾上太一\Documents\C++\RPGprogram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syalpon\Documents\C++\RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD485A4C-ACC5-45C5-9461-F32A8664ECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566CAA94-B45A-4F48-A851-5EBDBF0DC462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{839B11FF-F5A5-4D73-8DEF-A119E90D0F0A}"/>
+    <workbookView xWindow="31365" yWindow="1155" windowWidth="11940" windowHeight="13620" activeTab="2" xr2:uid="{839B11FF-F5A5-4D73-8DEF-A119E90D0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="6" r:id="rId1"/>
-    <sheet name="クラス図" sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="クラス図old" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="コンソール画面" sheetId="4" r:id="rId4"/>
+    <sheet name="クラス図" sheetId="5" r:id="rId2"/>
+    <sheet name="イベント種類" sheetId="8" r:id="rId3"/>
+    <sheet name="クラス図old" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="コンソール画面" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="213">
   <si>
     <t>HP</t>
     <phoneticPr fontId="1"/>
@@ -1760,6 +1761,401 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>➅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在値が上限値を超えようとしたとき</t>
+    <rPh sb="4" eb="7">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限値が(現在値を下回らず)減少しようとしたとき</t>
+    <rPh sb="5" eb="8">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限値が上限値を超えようとしたとき</t>
+    <rPh sb="4" eb="7">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限値が(現在値を上回ず)増加しようとしたとき</t>
+    <rPh sb="5" eb="8">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウワマワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限値が減るとき</t>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在値が(下限値を下回らずに)減ろうとしたとき</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在値が下限値を下回ろうとするとき</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シタマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントトリガ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限値が増えるとき</t>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限値が(現在値を下回らず)減少しようとしたとき</t>
+    <rPh sb="5" eb="8">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限値が(下限値を下回らず)現在値より減少しようとしたとき</t>
+    <rPh sb="5" eb="8">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限値が下限値を下回るとき</t>
+    <rPh sb="4" eb="7">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シタマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限値と現在値を下限値に合わせる</t>
+    <rPh sb="4" eb="7">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在値が(上限値を上回ずに)増えるとき</t>
+    <rPh sb="9" eb="11">
+      <t>ウワマワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在値を上限値に合わせる</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在値を更新後の上限値に合わせる</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在値を下限値に合わせる</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限値と現在値を上限値に合わせる</t>
+    <rPh sb="0" eb="3">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在値を更新後の下限値に合わせる</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅延処理が必要な為、各変数が更新するとき</t>
+    <rPh sb="0" eb="2">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前イベント→値の更新→後イベント</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で実装を行う。</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返値で値の更新を行うことは複雑になりすぎるので避ける</t>
+    <rPh sb="0" eb="2">
+      <t>カエリチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数で更新前と更新後の値を渡す。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2254,7 +2650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2290,11 +2686,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2302,7 +2699,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2315,9 +2724,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2347,37 +2774,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -8631,6 +9036,1241 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB954561-C82F-48B2-BD4A-4F7615D1179D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="3333750"/>
+          <a:ext cx="5000625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F31847D-DEAE-4568-92C0-1F5237BD3184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="1428750"/>
+          <a:ext cx="5000625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580A1EBE-F342-442D-995C-23C9BF2F4E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="2381250"/>
+          <a:ext cx="5000625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6609E97A-3A97-42FF-8A56-6C382F4E9047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2143125" y="952500"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129E551B-4AA4-46A0-8821-2D663CA038B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1428750"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312875E0-74E3-4BB8-929A-C315D2A94902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1428750"/>
+          <a:ext cx="476250" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928D7BB9-28E1-44CA-A5E3-04ACB4B68C7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1428750"/>
+          <a:ext cx="476250" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528E2F5B-B19F-4C5F-B3BD-994AD434D9DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5248275" y="952500"/>
+          <a:ext cx="476250" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3973F1-1E12-4647-8522-1B5C67967D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="3333750"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18897420-B57C-401F-9EEA-584071698591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5248275" y="1905000"/>
+          <a:ext cx="476250" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0B3CCD-0481-452D-B993-8E81367C9EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5248275" y="2857500"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF625B35-E006-45BF-A2DB-F2BBEE2BF6D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3810000" y="952500"/>
+          <a:ext cx="476250" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28BADAD-4510-47F7-BEB5-FFA705757DD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3810000" y="1905000"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044CDD1E-DE6D-440C-AC34-5F2693BBB830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="2381250"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34668223-8462-4392-B0F8-8988204ED147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="2381250"/>
+          <a:ext cx="476250" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD50225-5D1C-488D-BD4C-B1B9AF703F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2619375" y="3333750"/>
+          <a:ext cx="238125" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A13BC9-8162-42C7-8F4E-682439AC4D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="2381250"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC3CC2E-6204-443B-9360-6AF6111396BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4048125" y="3333750"/>
+          <a:ext cx="238125" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9555D5F5-5836-4C90-A837-6ACBC1FF77C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="952500"/>
+          <a:ext cx="238125" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA4C5AE-5B26-4075-957A-80C9B81561C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="952500"/>
+          <a:ext cx="238125" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986B03CF-4421-4951-8631-1C8EE7BD3539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="2381250"/>
+          <a:ext cx="714375" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6685BD50-79C4-489F-981D-5037A4E6EE4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="1905000"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91493D23-CF91-4467-A746-37BCD1BF1786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="1428750"/>
+          <a:ext cx="714375" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -15226,7 +16866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD7E9A4-C8C4-42CC-8298-7D06DA109594}">
   <dimension ref="A2:W88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15271,407 +16913,407 @@
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B12" s="34"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="34"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="35"/>
-      <c r="C16" s="56" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B17" s="34"/>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B19" s="35"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B20" s="34"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="59"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="40"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B22" s="34"/>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="38"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="43"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
@@ -15713,31 +17355,31 @@
       <c r="B28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39" t="s">
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39" t="s">
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39" t="s">
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="40"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B29" s="25" t="s">
@@ -15866,31 +17508,31 @@
       <c r="B33" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39" t="s">
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39" t="s">
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39" t="s">
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="40"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="25" t="s">
@@ -16019,31 +17661,31 @@
       <c r="B38" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39" t="s">
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39" t="s">
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39" t="s">
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="40"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="25" t="s">
@@ -16187,31 +17829,31 @@
       <c r="B43" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39" t="s">
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39" t="s">
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39" t="s">
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39" t="s">
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="40"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="33"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" s="25" t="s">
@@ -16355,31 +17997,31 @@
       <c r="B48" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39" t="s">
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39" t="s">
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39" t="s">
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39" t="s">
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="40"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" s="25" t="s">
@@ -16542,7 +18184,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="31" t="s">
         <v>71</v>
       </c>
     </row>
@@ -16674,31 +18316,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="C10:W10"/>
+    <mergeCell ref="C9:W9"/>
+    <mergeCell ref="C8:W8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C11:W11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C15:W15"/>
     <mergeCell ref="C14:W14"/>
@@ -16713,12 +18336,31 @@
     <mergeCell ref="C19:W19"/>
     <mergeCell ref="C21:W21"/>
     <mergeCell ref="C22:W22"/>
-    <mergeCell ref="C10:W10"/>
-    <mergeCell ref="C9:W9"/>
-    <mergeCell ref="C8:W8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C11:W11"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -16762,14 +18404,14 @@
     </row>
     <row r="11" spans="1:70" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:70" s="12" customFormat="1" x14ac:dyDescent="0.4">
@@ -16916,90 +18558,95 @@
     </row>
     <row r="25" spans="1:8" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="44" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="47">
+      <c r="B26" s="58">
         <v>1</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="47" t="s">
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="53" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="53" t="s">
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="53" t="s">
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="50" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="B27:D27"/>
@@ -17008,11 +18655,6 @@
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17022,6 +18664,870 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAA1215-9B6F-408E-A311-801F215C9C2A}">
+  <dimension ref="E4:AZ30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19:AO19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="4" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="L4" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" t="s">
+        <v>179</v>
+      </c>
+      <c r="X4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="AF5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="AF7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="L8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R8" t="s">
+        <v>180</v>
+      </c>
+      <c r="X8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="L12" t="s">
+        <v>177</v>
+      </c>
+      <c r="R12" t="s">
+        <v>181</v>
+      </c>
+      <c r="X12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="5:32" x14ac:dyDescent="0.4">
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="R16" t="s">
+        <v>182</v>
+      </c>
+      <c r="X16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E18" s="18"/>
+      <c r="F18" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="32"/>
+      <c r="AZ18" s="32"/>
+    </row>
+    <row r="19" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E19" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="32"/>
+      <c r="AY19" s="32"/>
+      <c r="AZ19" s="32"/>
+    </row>
+    <row r="20" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E20" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
+    </row>
+    <row r="21" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E21" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="63"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="32"/>
+    </row>
+    <row r="22" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E22" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+    </row>
+    <row r="23" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E23" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="63"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+    </row>
+    <row r="24" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E24" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="32"/>
+      <c r="AZ24" s="32"/>
+    </row>
+    <row r="25" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E25" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="32"/>
+      <c r="AY25" s="32"/>
+      <c r="AZ25" s="32"/>
+    </row>
+    <row r="26" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E26" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
+      <c r="AZ26" s="32"/>
+    </row>
+    <row r="27" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E27" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+    </row>
+    <row r="28" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E28" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="62"/>
+      <c r="AM28" s="62"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
+    </row>
+    <row r="29" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E29" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
+    </row>
+    <row r="30" spans="5:52" x14ac:dyDescent="0.4">
+      <c r="E30" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="62"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="AP26:AZ26"/>
+    <mergeCell ref="AP27:AZ27"/>
+    <mergeCell ref="AP28:AZ28"/>
+    <mergeCell ref="AP29:AZ29"/>
+    <mergeCell ref="AP30:AZ30"/>
+    <mergeCell ref="AA29:AO29"/>
+    <mergeCell ref="AA30:AO30"/>
+    <mergeCell ref="AP18:AZ18"/>
+    <mergeCell ref="AP19:AZ19"/>
+    <mergeCell ref="AP20:AZ20"/>
+    <mergeCell ref="AP21:AZ21"/>
+    <mergeCell ref="AP22:AZ22"/>
+    <mergeCell ref="AP23:AZ23"/>
+    <mergeCell ref="AP24:AZ24"/>
+    <mergeCell ref="AP25:AZ25"/>
+    <mergeCell ref="AA23:AO23"/>
+    <mergeCell ref="AA24:AO24"/>
+    <mergeCell ref="AA25:AO25"/>
+    <mergeCell ref="AA26:AO26"/>
+    <mergeCell ref="AA27:AO27"/>
+    <mergeCell ref="AA28:AO28"/>
+    <mergeCell ref="F18:Z18"/>
+    <mergeCell ref="AA18:AO18"/>
+    <mergeCell ref="AA19:AO19"/>
+    <mergeCell ref="AA20:AO20"/>
+    <mergeCell ref="AA21:AO21"/>
+    <mergeCell ref="AA22:AO22"/>
+    <mergeCell ref="F24:Z24"/>
+    <mergeCell ref="F23:Z23"/>
+    <mergeCell ref="F22:Z22"/>
+    <mergeCell ref="F21:Z21"/>
+    <mergeCell ref="F20:Z20"/>
+    <mergeCell ref="F19:Z19"/>
+    <mergeCell ref="F30:Z30"/>
+    <mergeCell ref="F29:Z29"/>
+    <mergeCell ref="F28:Z28"/>
+    <mergeCell ref="F27:Z27"/>
+    <mergeCell ref="F26:Z26"/>
+    <mergeCell ref="F25:Z25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AFEAF5-DD9F-4808-AFF6-DEF07A9C7F9E}">
   <dimension ref="V1:BK8"/>
   <sheetViews>
@@ -17049,7 +19555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D44981-BA60-43C9-821C-23A7E7AE99D0}">
   <dimension ref="A1:B79"/>
   <sheetViews>
